--- a/src/main/webapp/WEB-INF/template/ada-customer.xlsx
+++ b/src/main/webapp/WEB-INF/template/ada-customer.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\NEW-PROJECT\ada-group\src\main\webapp\WEB-INF\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\adagroup\ada-group\src\main\webapp\WEB-INF\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFCB84BE-E675-4A1D-A551-8108CC31777A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E30BB24E-4987-43A8-BAFA-33054D14E360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1470" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>STT</t>
   </si>
@@ -51,9 +51,6 @@
     <t>Team</t>
   </si>
   <si>
-    <t>${item.status == 1 ? 'Đang hoạt động' : 'Ngưng hoạt động'}&lt;/jt:forEach&gt;</t>
-  </si>
-  <si>
     <t>${item.fullName}</t>
   </si>
   <si>
@@ -67,6 +64,21 @@
   </si>
   <si>
     <t>${item.type == 3 ? 'Đại lý' : '-'}</t>
+  </si>
+  <si>
+    <t>${item.email}</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Địa chỉ</t>
+  </si>
+  <si>
+    <t>${item.status == 1 ? 'Đang hoạt động' : 'Ngưng hoạt động'}</t>
+  </si>
+  <si>
+    <t>${item.address}&lt;/jt:forEach&gt;</t>
   </si>
 </sst>
 </file>
@@ -76,7 +88,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,6 +107,13 @@
       <color theme="0"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -140,7 +159,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -157,12 +176,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -184,9 +208,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -224,7 +248,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -330,7 +354,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -472,7 +496,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -480,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,8 +519,8 @@
     <col min="5" max="5" width="14.140625" style="2" customWidth="1"/>
     <col min="6" max="6" width="23.7109375" style="5" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25" customWidth="1"/>
+    <col min="9" max="9" width="32.28515625" customWidth="1"/>
     <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.140625" bestFit="1" customWidth="1"/>
@@ -526,50 +550,62 @@
     <col min="37" max="37" width="27.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:9" s="9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="8" t="s">
         <v>5</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="8" t="s">
         <v>2</v>
       </c>
+      <c r="H1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>8</v>
+      <c r="I2" s="7" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
